--- a/excel_menu/northmess.xlsx
+++ b/excel_menu/northmess.xlsx
@@ -269,7 +269,7 @@
     <t xml:space="preserve">Mix Pakoda</t>
   </si>
   <si>
-    <t xml:space="preserve">Dhokla</t>
+    <t xml:space="preserve">Dhokla/Poha</t>
   </si>
   <si>
     <t xml:space="preserve">Bevearge</t>
@@ -730,18 +730,18 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="24.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.86"/>
   </cols>

--- a/excel_menu/northmess.xlsx
+++ b/excel_menu/northmess.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="120">
   <si>
     <t xml:space="preserve">Meal</t>
   </si>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Khasta kachori</t>
   </si>
   <si>
-    <t xml:space="preserve">SABUDANA KICHRI</t>
+    <t xml:space="preserve">Sabudana Kichri</t>
   </si>
   <si>
     <t xml:space="preserve">Samosa</t>
@@ -79,22 +79,22 @@
     <t xml:space="preserve">Item 2</t>
   </si>
   <si>
-    <t xml:space="preserve">PUFFED RICE POHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEG DALIA</t>
+    <t xml:space="preserve">Puffed Rice Poha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veg Dalia</t>
   </si>
   <si>
     <t xml:space="preserve">Veg Upma</t>
   </si>
   <si>
-    <t xml:space="preserve">SEWAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANEER PARATHA</t>
+    <t xml:space="preserve">Sewai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paneer Paratha</t>
   </si>
   <si>
     <t xml:space="preserve">Macroni</t>
@@ -103,25 +103,25 @@
     <t xml:space="preserve">Accompaniants</t>
   </si>
   <si>
-    <t xml:space="preserve">Tomato chutney, MOONG SPROUTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMATO KETCHUP, SATTU DRINK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aloo Sabji, BLACK CHANA CHAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMATO CHUTNEY, SPROUTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aloo sabzi, MOONG SPROUTS SALAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREEN CHUTNEY, PEANUT SALAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imli Chutney/Ketchup, SATTU DRINK</t>
+    <t xml:space="preserve">Tomato chutney, Moong Sprouts, Bread, Butter, Jam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomato Ketchup, Sattu Drink, Bread, Butter, Jam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aloo Sabji, Black Chana Chat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomato Chutney, Sprouts, Bread, Butter, Jam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aloo sabzi, Moong Sprouts Salad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Chutney, Peanut Salad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imli Chutney/Ketchup, Sattu Drink, Bread, Butter, Jam</t>
   </si>
   <si>
     <t xml:space="preserve">Mandatory Items</t>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">Fruits</t>
   </si>
   <si>
-    <t xml:space="preserve">FRUIT</t>
+    <t xml:space="preserve">Fruit</t>
   </si>
   <si>
     <t xml:space="preserve">Lunch</t>
@@ -163,13 +163,13 @@
     <t xml:space="preserve">Rajma Masala</t>
   </si>
   <si>
-    <t xml:space="preserve">kala channa</t>
+    <t xml:space="preserve">Kala Chana</t>
   </si>
   <si>
     <t xml:space="preserve">Lobiya (Gravy)</t>
   </si>
   <si>
-    <t xml:space="preserve">Chola Masala</t>
+    <t xml:space="preserve">Chole Masala</t>
   </si>
   <si>
     <t xml:space="preserve">Veg Kofta Curry</t>
@@ -220,7 +220,7 @@
     <t xml:space="preserve">Dal Fry</t>
   </si>
   <si>
-    <t xml:space="preserve">Green Moong Dal, Punjabi Kadhi</t>
+    <t xml:space="preserve">Green Moong Dal</t>
   </si>
   <si>
     <t xml:space="preserve">Tuver Dal</t>
@@ -235,19 +235,30 @@
     <t xml:space="preserve">Flavoured Rice</t>
   </si>
   <si>
-    <t xml:space="preserve">Veg Biryani</t>
+    <t xml:space="preserve">Veg Biryani &amp; Raita</t>
   </si>
   <si>
     <t xml:space="preserve">Palak Puri</t>
   </si>
   <si>
+    <t xml:space="preserve">Roti or Chapati/Curd/
+Pickle/Salad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roti or Chapati/Papad/Pickle/Salad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pickle/Salad</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chapati/Curd/
+Pickle/Salad/ Imli Chutney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roti or Chapati/Curd/Fryums/
 Pickle/Salad</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapati/Curd/Pickle</t>
-  </si>
-  <si>
     <t xml:space="preserve">Snacks</t>
   </si>
   <si>
@@ -266,6 +277,9 @@
     <t xml:space="preserve">Aloo Sandwhich</t>
   </si>
   <si>
+    <t xml:space="preserve">Veg Macroni</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mix Pakoda</t>
   </si>
   <si>
@@ -287,7 +301,7 @@
     <t xml:space="preserve">Aloo paratha</t>
   </si>
   <si>
-    <t xml:space="preserve">Latcha Paratha</t>
+    <t xml:space="preserve">Latcha/ Plain Paratha</t>
   </si>
   <si>
     <t xml:space="preserve">Veg Manchurian, Fried rice</t>
@@ -329,7 +343,7 @@
     <t xml:space="preserve">Soya Badi (semidry)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mattar Pullav</t>
+    <t xml:space="preserve">Matar Pulao</t>
   </si>
   <si>
     <t xml:space="preserve">Paneer Lababdar</t>
@@ -359,18 +373,16 @@
     <t xml:space="preserve">White Rice</t>
   </si>
   <si>
-    <t xml:space="preserve">Butter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fried Rice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapati/Curd/Pickle/Sala
-d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapati/Curd/Pick
-le</t>
+    <t xml:space="preserve">Salad/Curd/Pickle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roti or Chapati/Curd/Pickle/Salad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curd/Pickle/Salad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roti/Curd/Pickle/ Salad</t>
   </si>
 </sst>
 </file>
@@ -541,7 +553,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -632,10 +644,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -727,13 +735,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.88"/>
@@ -1075,99 +1083,99 @@
         <v>74</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
       <c r="B15" s="17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H16" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="22" t="s">
         <v>90</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="true" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1177,22 +1185,22 @@
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="true" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1201,25 +1209,25 @@
         <v>52</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1228,25 +1236,25 @@
         <v>60</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1264,73 +1272,55 @@
         <v>68</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>68</v>
-      </c>
+      <c r="H20" s="20"/>
       <c r="I20" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="true" ht="20.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="19"/>
-      <c r="B21" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="23"/>
-    </row>
-    <row r="22" s="1" customFormat="true" ht="20.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19"/>
-      <c r="B22" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
+      <c r="C21" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A16:A21"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
